--- a/Table 2 - Climate-Front model fits/Table 2 - ClimateFrontModelFits.xlsx
+++ b/Table 2 - Climate-Front model fits/Table 2 - ClimateFrontModelFits.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="29760" windowHeight="22020" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="3" r:id="rId1"/>
@@ -21,10 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
-  <si>
-    <t>&gt; sstfit2 = glm(SST17~NPI+NPGO,data=clim)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="69">
   <si>
     <t>&gt; summary(sstfit2)</t>
   </si>
@@ -32,160 +29,40 @@
     <t>Call:</t>
   </si>
   <si>
-    <t>glm(formula = SST17 ~ NPI + NPGO, data = clim)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Deviance Residuals: </t>
   </si>
   <si>
     <t xml:space="preserve">     Min        1Q    Median        3Q       Max  </t>
   </si>
   <si>
-    <t xml:space="preserve">-0.93352  -0.43345   0.00013   0.32581   0.90880  </t>
-  </si>
-  <si>
     <t>Coefficients:</t>
   </si>
   <si>
     <t xml:space="preserve">            Estimate Std. Error t value Pr(&gt;|t|)    </t>
   </si>
   <si>
-    <t>(Intercept) 31.68886    0.24520 129.236  &lt; 2e-16 ***</t>
-  </si>
-  <si>
-    <t>NPI          0.38752    0.07831   4.949 0.000337 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPGO         0.08054    0.05576   1.444 0.174205    </t>
-  </si>
-  <si>
     <t>---</t>
   </si>
   <si>
     <t>Signif. codes:  0 ‘***’ 0.001 ‘**’ 0.01 ‘*’ 0.05 ‘.’ 0.1 ‘ ’ 1</t>
   </si>
   <si>
-    <t>(Dispersion parameter for gaussian family taken to be 0.3819707)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Null deviance: 13.9442  on 14  degrees of freedom</t>
-  </si>
-  <si>
-    <t>Residual deviance:  4.5836  on 12  degrees of freedom</t>
-  </si>
-  <si>
-    <t>AIC: 32.785</t>
-  </si>
-  <si>
     <t>Number of Fisher Scoring iterations: 2</t>
   </si>
   <si>
     <t>r2</t>
   </si>
   <si>
-    <t>1-(4.5836/13.9442)</t>
-  </si>
-  <si>
-    <t>&gt; sstfit = glm(SST17~NPI,data=clim)</t>
-  </si>
-  <si>
     <t>&gt; summary(sstfit)</t>
   </si>
   <si>
-    <t>glm(formula = SST17 ~ NPI, data = clim)</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Min       1Q   Median       3Q      Max  </t>
   </si>
   <si>
-    <t xml:space="preserve">-0.7358  -0.4547  -0.1343   0.5843   0.9795  </t>
-  </si>
-  <si>
-    <t>(Intercept) 31.95758    0.16628 192.197  &lt; 2e-16 ***</t>
-  </si>
-  <si>
-    <t>NPI          0.35726    0.07854   4.549 0.000547 ***</t>
-  </si>
-  <si>
-    <t>(Dispersion parameter for gaussian family taken to be 0.413895)</t>
-  </si>
-  <si>
-    <t>Residual deviance:  5.3806  on 13  degrees of freedom</t>
-  </si>
-  <si>
-    <t>AIC: 33.19</t>
-  </si>
-  <si>
-    <t>1-(5.3806/13.9442)</t>
-  </si>
-  <si>
-    <t>&gt; chlafit = glm(CHLAp2~NPI,data=clim)</t>
-  </si>
-  <si>
     <t>&gt; summary(chlafit)</t>
   </si>
   <si>
-    <t>glm(formula = CHLAp2 ~ NPI, data = clim)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.5151  -0.7861   0.1448   0.4936   2.0480  </t>
-  </si>
-  <si>
-    <t>(Intercept)  32.3979     0.3222 100.540 2.32e-16 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPI           0.5241     0.1513   3.463  0.00609 ** </t>
-  </si>
-  <si>
-    <t>(Dispersion parameter for gaussian family taken to be 1.232541)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Null deviance: 27.109  on 11  degrees of freedom</t>
-  </si>
-  <si>
-    <t>Residual deviance: 12.325  on 10  degrees of freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  (3 observations deleted due to missingness)</t>
-  </si>
-  <si>
-    <t>AIC: 40.376</t>
-  </si>
-  <si>
-    <t>1-(12.325/27.109)</t>
-  </si>
-  <si>
-    <t>&gt; chlafit2 = glm(CHLAp2~NPI+NPGO,data=clim)</t>
-  </si>
-  <si>
     <t>&gt; summary(chlafit2)</t>
-  </si>
-  <si>
-    <t>glm(formula = CHLAp2 ~ NPI + NPGO, data = clim)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.0340  -0.4699   0.2389   0.3855   1.6153  </t>
-  </si>
-  <si>
-    <t>(Intercept) 31.86803    0.40406  78.869 4.29e-14 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPI          0.57822    0.13842   4.177  0.00239 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPGO         0.17383    0.09291   1.871  0.09417 .  </t>
-  </si>
-  <si>
-    <t>(Dispersion parameter for gaussian family taken to be 0.986017)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Null deviance: 27.1090  on 11  degrees of freedom</t>
-  </si>
-  <si>
-    <t>Residual deviance:  8.8742  on  9  degrees of freedom</t>
-  </si>
-  <si>
-    <t>AIC: 38.433</t>
   </si>
   <si>
     <t>1-(8.8742/27.109)</t>
@@ -272,9 +149,6 @@
     <t>&lt;0.01(***)</t>
   </si>
   <si>
-    <t>0.17 (NS)</t>
-  </si>
-  <si>
     <t>&lt;0.01 (***)</t>
   </si>
   <si>
@@ -304,6 +178,126 @@
       </rPr>
       <t xml:space="preserve"> isopleths in the North Pacific against climate indices</t>
     </r>
+  </si>
+  <si>
+    <t>&gt; sstfit = glm(SST17.FebMar~NPI.NDJFM,data=clim)</t>
+  </si>
+  <si>
+    <t>glm(formula = SST17.FebMar ~ NPI.NDJFM, data = clim)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.8322  -0.4421  -0.1009   0.4873   1.1042  </t>
+  </si>
+  <si>
+    <t>(Intercept) 32.15882    0.17470 184.082  &lt; 2e-16 ***</t>
+  </si>
+  <si>
+    <t>NPI.NDJFM    0.36744    0.08096   4.538  0.00068 ***</t>
+  </si>
+  <si>
+    <t>(Dispersion parameter for gaussian family taken to be 0.4234956)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Null deviance: 13.8048  on 13  degrees of freedom</t>
+  </si>
+  <si>
+    <t>Residual deviance:  5.0819  on 12  degrees of freedom</t>
+  </si>
+  <si>
+    <t>AIC: 31.543</t>
+  </si>
+  <si>
+    <t>&gt; sstfit2 = glm(SST17.FebMar~NPI.NDJFM+NPGO.NDJFM,data=clim)</t>
+  </si>
+  <si>
+    <t>glm(formula = SST17.FebMar ~ NPI.NDJFM + NPGO.NDJFM, data = clim)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.90859  -0.44335   0.05035   0.46458   1.10003  </t>
+  </si>
+  <si>
+    <t>(Intercept)  32.0476     0.2396 133.777  &lt; 2e-16 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPI.NDJFM     0.3614     0.0832   4.344  0.00117 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPGO.NDJFM    0.1222     0.1754   0.696  0.50063    </t>
+  </si>
+  <si>
+    <t>(Dispersion parameter for gaussian family taken to be 0.4424863)</t>
+  </si>
+  <si>
+    <t>Residual deviance:  4.8673  on 11  degrees of freedom</t>
+  </si>
+  <si>
+    <t>AIC: 32.939</t>
+  </si>
+  <si>
+    <t>0.50 (NS)</t>
+  </si>
+  <si>
+    <t>&gt; chlafit = glm(CHLAp2.FebMar~NPI.NDJFM,data=clim)</t>
+  </si>
+  <si>
+    <t>glm(formula = CHLAp2.FebMar ~ NPI.NDJFM, data = clim)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.3373  -1.0748  -0.1104   0.8663   1.6299  </t>
+  </si>
+  <si>
+    <t>(Intercept)  32.9698     0.2977 110.752  &lt; 2e-16 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPI.NDJFM     0.5218     0.1380   3.782  0.00261 ** </t>
+  </si>
+  <si>
+    <t>(Dispersion parameter for gaussian family taken to be 1.229716)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Null deviance: 32.346  on 13  degrees of freedom</t>
+  </si>
+  <si>
+    <t>Residual deviance: 14.757  on 12  degrees of freedom</t>
+  </si>
+  <si>
+    <t>AIC: 46.467</t>
+  </si>
+  <si>
+    <t>1-(14.757/32.346)</t>
+  </si>
+  <si>
+    <t>1-(5.0819/13.8048)</t>
+  </si>
+  <si>
+    <t>1-(4.8673/13.8048)</t>
+  </si>
+  <si>
+    <t>&gt; chlafit2 = glm(CHLAp2.FebMar~NPI.NDJFM+NPGO.NDJFM,data=clim)</t>
+  </si>
+  <si>
+    <t>glm(formula = CHLAp2.FebMar ~ NPI.NDJFM + NPGO.NDJFM, data = clim)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.5275  -0.8161   0.3293   0.8706   1.2471  </t>
+  </si>
+  <si>
+    <t>(Intercept)  32.6596     0.3928  83.142  &lt; 2e-16 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPI.NDJFM     0.5051     0.1364   3.702  0.00349 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPGO.NDJFM    0.3408     0.2877   1.185  0.26113    </t>
+  </si>
+  <si>
+    <t>(Dispersion parameter for gaussian family taken to be 1.189727)</t>
+  </si>
+  <si>
+    <t>Residual deviance: 13.087  on 11  degrees of freedom</t>
+  </si>
+  <si>
+    <t>AIC: 46.786</t>
   </si>
 </sst>
 </file>
@@ -887,7 +881,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -896,76 +892,76 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
       <c r="A3" s="8" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="14" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="C4" s="6">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="D4" s="6">
-        <v>33.19</v>
+        <v>31.54</v>
       </c>
       <c r="E4" s="6">
-        <v>5.38</v>
+        <v>5.08</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="15"/>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="C5" s="7">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="D5" s="7">
-        <v>32.79</v>
+        <v>32.94</v>
       </c>
       <c r="E5" s="7">
-        <v>4.58</v>
+        <v>4.87</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="16" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="C6" s="6">
-        <v>0.55000000000000004</v>
+        <v>0.54</v>
       </c>
       <c r="D6" s="6">
         <v>40.380000000000003</v>
@@ -974,13 +970,13 @@
         <v>12.33</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="17"/>
       <c r="B7" s="3" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="C7" s="7">
         <v>0.67</v>
@@ -992,12 +988,12 @@
         <v>8.8699999999999992</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1019,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17:J17"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1030,179 +1026,179 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="F17" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="F19" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="F23" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="F25" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="C26" s="1">
-        <f>1-(5.3806/13.9442)</f>
-        <v>0.61413347484975833</v>
+        <f>1-(5.0819/13.8048)</f>
+        <v>0.63187442049142328</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G26" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="H26" s="1">
-        <f>1-(4.5836/13.9442)</f>
-        <v>0.67128985528033169</v>
+        <f>1-(4.8673/13.8048)</f>
+        <v>0.64741973806212338</v>
       </c>
     </row>
   </sheetData>
@@ -1218,209 +1214,189 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>49</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="F14" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="F17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="F19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="F21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="F22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="F23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="F24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>18</v>
-      </c>
+    <row r="25" spans="1:8">
       <c r="F25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="F26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C27" s="1">
-        <f>1-(12.325/27.109)</f>
-        <v>0.54535394149544436</v>
-      </c>
-      <c r="F27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="F29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="F31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="F32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="6:8">
-      <c r="F33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="6:8">
-      <c r="F34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="6:8">
-      <c r="F36" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="6:8">
-      <c r="F38" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" t="s">
-        <v>55</v>
-      </c>
-      <c r="H38" s="1">
+        <f>1-(14.757/32.346)</f>
+        <v>0.54377666481172326</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="1">
         <f>1-(8.8742/27.109)</f>
         <v>0.67264746025305255</v>
       </c>
